--- a/biology/Médecine/Pierre_Vallery-Radot/Pierre_Vallery-Radot.xlsx
+++ b/biology/Médecine/Pierre_Vallery-Radot/Pierre_Vallery-Radot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Félix Édouard Pierre Vallery-Radot, né le 29 avril 1889 dans le 8e arrondissement de Paris et mort le 25 juin 1975 dans le 15e arrondissement de Paris[1], est médecin assistant des Hôpitaux de Paris, spécialiste des maladies infantiles.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Félix Édouard Pierre Vallery-Radot, né le 29 avril 1889 dans le 8e arrondissement de Paris et mort le 25 juin 1975 dans le 15e arrondissement de Paris, est médecin assistant des Hôpitaux de Paris, spécialiste des maladies infantiles.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il était le frère de Jean Vallery-Radot, conservateur en chef de la Bibliothèque nationale, le cousin germain du professeur Louis Pasteur Vallery-Radot, de l'Académie française et de l'écrivain Robert Vallery-Radot.
 Ancien interne des Hôpitaux de Paris et chef de clinique à la Faculté, il fut l’élève d'Achille Souques. Docteur en médecine en 1921, il a consacré une partie de sa vie à l'histoire de la médecine
@@ -543,9 +557,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Légion d'honneur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Légion d'honneur.
 Lauréat du Prix Montyon en 1948 pour Deux siècles d’histoire hospitalière</t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La médecine et les médecins dans l'œuvre de Montaigne - 1942.
 Chirurgiens d'autrefois - éd. R. G. Ricou et OCIA, 1944.
